--- a/data/input/absenteeism_data_16.xlsx
+++ b/data/input/absenteeism_data_16.xlsx
@@ -476,16 +476,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>68935</v>
+        <v>57182</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sr. Benjamin Lopes</t>
+          <t>Lucca Alves</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -494,114 +494,114 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45087</v>
+        <v>45104</v>
       </c>
       <c r="G2" t="n">
-        <v>8934.299999999999</v>
+        <v>7624.94</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>71652</v>
+        <v>93363</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Kamilly Mendes</t>
+          <t>Isaac Fogaça</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45084</v>
+        <v>45092</v>
       </c>
       <c r="G3" t="n">
-        <v>11748.6</v>
+        <v>7661.34</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>29452</v>
+        <v>13359</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Luana Gonçalves</t>
+          <t>Dra. Heloísa Alves</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45096</v>
+        <v>45086</v>
       </c>
       <c r="G4" t="n">
-        <v>6236.76</v>
+        <v>9780.299999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>13277</v>
+        <v>72422</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Luiz Henrique Duarte</t>
+          <t>Benício Moraes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45082</v>
+        <v>45103</v>
       </c>
       <c r="G5" t="n">
-        <v>9568.51</v>
+        <v>5909.64</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>53500</v>
+        <v>98388</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Maria Julia Melo</t>
+          <t>Elisa Sales</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -610,22 +610,22 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45088</v>
+        <v>45091</v>
       </c>
       <c r="G6" t="n">
-        <v>5618.23</v>
+        <v>4669.65</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>14703</v>
+        <v>31590</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Vitor Porto</t>
+          <t>Dr. Luiz Otávio Pinto</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -635,55 +635,55 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45098</v>
+        <v>45102</v>
       </c>
       <c r="G7" t="n">
-        <v>10589.51</v>
+        <v>3899.72</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>81683</v>
+        <v>353</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Emilly Peixoto</t>
+          <t>Juan da Cruz</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45098</v>
+        <v>45082</v>
       </c>
       <c r="G8" t="n">
-        <v>5806.75</v>
+        <v>3003.46</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>79682</v>
+        <v>51897</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Dra. Sofia Jesus</t>
+          <t>Maria Eduarda Pinto</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -697,51 +697,51 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45100</v>
+        <v>45082</v>
       </c>
       <c r="G9" t="n">
-        <v>11696.53</v>
+        <v>7780.89</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8030</v>
+        <v>40760</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Stella Sales</t>
+          <t>Dra. Olivia Porto</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45085</v>
+        <v>45093</v>
       </c>
       <c r="G10" t="n">
-        <v>4414.35</v>
+        <v>7975.48</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>80198</v>
+        <v>40394</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Diogo Cunha</t>
+          <t>Luiz Felipe da Costa</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -751,17 +751,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45096</v>
+        <v>45104</v>
       </c>
       <c r="G11" t="n">
-        <v>5641.16</v>
+        <v>11582.56</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_16.xlsx
+++ b/data/input/absenteeism_data_16.xlsx
@@ -476,11 +476,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>57182</v>
+        <v>23226</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lucca Alves</t>
+          <t>Guilherme Gonçalves</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -490,278 +490,278 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45104</v>
+        <v>45089</v>
       </c>
       <c r="G2" t="n">
-        <v>7624.94</v>
+        <v>3114.2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>93363</v>
+        <v>77243</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Isaac Fogaça</t>
+          <t>Juan Castro</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45092</v>
+        <v>45080</v>
       </c>
       <c r="G3" t="n">
-        <v>7661.34</v>
+        <v>11946.25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>13359</v>
+        <v>99691</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dra. Heloísa Alves</t>
+          <t>Yasmin Ribeiro</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45086</v>
+        <v>45089</v>
       </c>
       <c r="G4" t="n">
-        <v>9780.299999999999</v>
+        <v>9296.629999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>72422</v>
+        <v>41943</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Benício Moraes</t>
+          <t>Otávio Duarte</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>6</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45103</v>
+        <v>45085</v>
       </c>
       <c r="G5" t="n">
-        <v>5909.64</v>
+        <v>5641.12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>98388</v>
+        <v>83109</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Elisa Sales</t>
+          <t>Sr. Bryan Aragão</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45091</v>
+        <v>45085</v>
       </c>
       <c r="G6" t="n">
-        <v>4669.65</v>
+        <v>8753.700000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>31590</v>
+        <v>90164</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Dr. Luiz Otávio Pinto</t>
+          <t>Bianca Nascimento</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45102</v>
+        <v>45079</v>
       </c>
       <c r="G7" t="n">
-        <v>3899.72</v>
+        <v>6367.89</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>353</v>
+        <v>75030</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Juan da Cruz</t>
+          <t>André Nogueira</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45082</v>
+        <v>45103</v>
       </c>
       <c r="G8" t="n">
-        <v>3003.46</v>
+        <v>11711.1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>51897</v>
+        <v>65743</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Maria Eduarda Pinto</t>
+          <t>Pietro Alves</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45082</v>
+        <v>45105</v>
       </c>
       <c r="G9" t="n">
-        <v>7780.89</v>
+        <v>11433.8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>40760</v>
+        <v>4265</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Dra. Olivia Porto</t>
+          <t>Dra. Lara Araújo</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45093</v>
+        <v>45082</v>
       </c>
       <c r="G10" t="n">
-        <v>7975.48</v>
+        <v>7490.43</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>40394</v>
+        <v>99687</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Luiz Felipe da Costa</t>
+          <t>Ana Gonçalves</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45104</v>
+        <v>45101</v>
       </c>
       <c r="G11" t="n">
-        <v>11582.56</v>
+        <v>4361.59</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_16.xlsx
+++ b/data/input/absenteeism_data_16.xlsx
@@ -476,98 +476,98 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>23226</v>
+        <v>66947</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Guilherme Gonçalves</t>
+          <t>Nicole Rocha</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45089</v>
+        <v>45094</v>
       </c>
       <c r="G2" t="n">
-        <v>3114.2</v>
+        <v>2625.02</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>77243</v>
+        <v>20478</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Juan Castro</t>
+          <t>Amanda Monteiro</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>2</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45080</v>
+        <v>45085</v>
       </c>
       <c r="G3" t="n">
-        <v>11946.25</v>
+        <v>10321.67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>99691</v>
+        <v>97290</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Yasmin Ribeiro</t>
+          <t>Helena Pereira</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45089</v>
+        <v>45087</v>
       </c>
       <c r="G4" t="n">
-        <v>9296.629999999999</v>
+        <v>8015.21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>41943</v>
+        <v>35777</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Otávio Duarte</t>
+          <t>Lavínia Araújo</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,191 +577,191 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45085</v>
+        <v>45080</v>
       </c>
       <c r="G5" t="n">
-        <v>5641.12</v>
+        <v>5639.61</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>83109</v>
+        <v>46115</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sr. Bryan Aragão</t>
+          <t>Emanuelly Carvalho</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45085</v>
+        <v>45105</v>
       </c>
       <c r="G6" t="n">
-        <v>8753.700000000001</v>
+        <v>6331.73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>90164</v>
+        <v>67775</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Bianca Nascimento</t>
+          <t>Heloísa Santos</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45079</v>
+        <v>45105</v>
       </c>
       <c r="G7" t="n">
-        <v>6367.89</v>
+        <v>10738.35</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>75030</v>
+        <v>52390</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>André Nogueira</t>
+          <t>Joana Rodrigues</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45103</v>
+        <v>45099</v>
       </c>
       <c r="G8" t="n">
-        <v>11711.1</v>
+        <v>6426.24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>65743</v>
+        <v>16987</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Pietro Alves</t>
+          <t>Felipe Nascimento</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45105</v>
+        <v>45091</v>
       </c>
       <c r="G9" t="n">
-        <v>11433.8</v>
+        <v>4931.16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4265</v>
+        <v>57842</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Dra. Lara Araújo</t>
+          <t>Nicole Porto</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45082</v>
+        <v>45093</v>
       </c>
       <c r="G10" t="n">
-        <v>7490.43</v>
+        <v>5196.52</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>99687</v>
+        <v>76666</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ana Gonçalves</t>
+          <t>João Gabriel Pereira</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45101</v>
+        <v>45091</v>
       </c>
       <c r="G11" t="n">
-        <v>4361.59</v>
+        <v>5563.19</v>
       </c>
     </row>
   </sheetData>
